--- a/data/pca/factorExposure/factorExposure_2017-12-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-12-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.007263300292653656</v>
+        <v>0.0122059153313305</v>
       </c>
       <c r="C2">
-        <v>-0.0003317380023051652</v>
+        <v>0.03994730781764817</v>
       </c>
       <c r="D2">
-        <v>-0.02426765146466525</v>
+        <v>0.02867770806005805</v>
       </c>
       <c r="E2">
-        <v>0.06164388755010781</v>
+        <v>-0.02632015705468899</v>
       </c>
       <c r="F2">
-        <v>0.01682083348524996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.03372678417278218</v>
+      </c>
+      <c r="G2">
+        <v>0.01259849641674445</v>
+      </c>
+      <c r="H2">
+        <v>-0.01561017071278229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.07907252980522135</v>
+        <v>0.06502475466475964</v>
       </c>
       <c r="C3">
-        <v>0.005567263044767669</v>
+        <v>0.07875492801574722</v>
       </c>
       <c r="D3">
-        <v>0.04621849416860314</v>
+        <v>0.01310709041868497</v>
       </c>
       <c r="E3">
-        <v>0.2374574312550389</v>
+        <v>-0.07480721330347791</v>
       </c>
       <c r="F3">
-        <v>0.08295018854645879</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.07589637003784343</v>
+      </c>
+      <c r="G3">
+        <v>0.06558395287662105</v>
+      </c>
+      <c r="H3">
+        <v>-0.006623087061200863</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.03365220997554302</v>
+        <v>0.05667410604104335</v>
       </c>
       <c r="C4">
-        <v>-0.02211507975592768</v>
+        <v>0.06221266556339024</v>
       </c>
       <c r="D4">
-        <v>-0.03492147994045731</v>
+        <v>0.02151206498331173</v>
       </c>
       <c r="E4">
-        <v>0.03587639768910903</v>
+        <v>0.002615676468445711</v>
       </c>
       <c r="F4">
-        <v>-0.02812095959992764</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.01898728218146612</v>
+      </c>
+      <c r="G4">
+        <v>0.03755726424572892</v>
+      </c>
+      <c r="H4">
+        <v>0.02953160451268932</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.05970116020892055</v>
+        <v>0.03161851387436003</v>
       </c>
       <c r="C6">
-        <v>-0.01439064968211221</v>
+        <v>0.05637809861739015</v>
       </c>
       <c r="D6">
-        <v>-0.05220911549175437</v>
+        <v>0.01597858731473519</v>
       </c>
       <c r="E6">
-        <v>0.03448492661169614</v>
+        <v>-0.004557864261909687</v>
       </c>
       <c r="F6">
-        <v>-0.04930095650478121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.01633671273789907</v>
+      </c>
+      <c r="G6">
+        <v>0.02065724836160645</v>
+      </c>
+      <c r="H6">
+        <v>0.007310825611268581</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02644107929210045</v>
+        <v>0.01788929410821467</v>
       </c>
       <c r="C7">
-        <v>-0.06917930124416312</v>
+        <v>0.03875514179988712</v>
       </c>
       <c r="D7">
-        <v>0.009039296756933385</v>
+        <v>0.01241757396754036</v>
       </c>
       <c r="E7">
-        <v>0.01039519802552388</v>
+        <v>0.01713053909636087</v>
       </c>
       <c r="F7">
-        <v>0.01508243218288254</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.01051508360178066</v>
+      </c>
+      <c r="G7">
+        <v>0.07286316014811389</v>
+      </c>
+      <c r="H7">
+        <v>-0.002714142876921768</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01532968354010963</v>
+        <v>-0.005471876298004661</v>
       </c>
       <c r="C8">
-        <v>-0.01014953906784057</v>
+        <v>0.0127175825179789</v>
       </c>
       <c r="D8">
-        <v>-0.01341933984692846</v>
+        <v>0.003731456636276637</v>
       </c>
       <c r="E8">
-        <v>0.02482116456650833</v>
+        <v>-0.01173486214297803</v>
       </c>
       <c r="F8">
-        <v>0.01406121713032155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.02356533429437659</v>
+      </c>
+      <c r="G8">
+        <v>0.02440149725658348</v>
+      </c>
+      <c r="H8">
+        <v>0.01910662490158415</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03025300272100169</v>
+        <v>0.02872689938100704</v>
       </c>
       <c r="C9">
-        <v>-0.0144159765515703</v>
+        <v>0.04270797653315028</v>
       </c>
       <c r="D9">
-        <v>-0.02388697201924963</v>
+        <v>0.01496452088830895</v>
       </c>
       <c r="E9">
-        <v>0.05530183886646836</v>
+        <v>0.0006682690644488368</v>
       </c>
       <c r="F9">
-        <v>-0.02313063713932592</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.01941953478419524</v>
+      </c>
+      <c r="G9">
+        <v>0.0282758609213248</v>
+      </c>
+      <c r="H9">
+        <v>-0.00476305643899346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.09096661590587432</v>
+        <v>0.08574619792278373</v>
       </c>
       <c r="C10">
-        <v>0.03639052836638589</v>
+        <v>-0.1834733036915554</v>
       </c>
       <c r="D10">
-        <v>0.1534742887250048</v>
+        <v>-0.01922852673167937</v>
       </c>
       <c r="E10">
-        <v>0.02071465117754968</v>
+        <v>-0.01550608822557568</v>
       </c>
       <c r="F10">
-        <v>0.01184866861023572</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.01240268718425141</v>
+      </c>
+      <c r="G10">
+        <v>0.03448679241154959</v>
+      </c>
+      <c r="H10">
+        <v>-0.03044119900795293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02472057412525933</v>
+        <v>0.03554953860021787</v>
       </c>
       <c r="C11">
-        <v>-0.003279935084334527</v>
+        <v>0.05399233582389657</v>
       </c>
       <c r="D11">
-        <v>-0.04479245407200816</v>
+        <v>0.0007298097211304419</v>
       </c>
       <c r="E11">
-        <v>0.01563630253715339</v>
+        <v>0.006802554893312537</v>
       </c>
       <c r="F11">
-        <v>-0.02122234966401065</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.02753386271085816</v>
+      </c>
+      <c r="G11">
+        <v>0.00815430484625896</v>
+      </c>
+      <c r="H11">
+        <v>-0.001243089749954912</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.0315036176691763</v>
+        <v>0.03522351360905332</v>
       </c>
       <c r="C12">
-        <v>-0.01059753252963774</v>
+        <v>0.04581538831681268</v>
       </c>
       <c r="D12">
-        <v>-0.04222071707902724</v>
+        <v>0.004973591073158295</v>
       </c>
       <c r="E12">
-        <v>-0.007768502195737801</v>
+        <v>0.01199219699007244</v>
       </c>
       <c r="F12">
-        <v>-0.002083549483625381</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.00723755398389721</v>
+      </c>
+      <c r="G12">
+        <v>0.01359856368243415</v>
+      </c>
+      <c r="H12">
+        <v>-0.002980330768182386</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.02084338540472215</v>
+        <v>0.01113719705727262</v>
       </c>
       <c r="C13">
-        <v>0.0002738989274139489</v>
+        <v>0.03258069648062946</v>
       </c>
       <c r="D13">
-        <v>-0.01567334357031974</v>
+        <v>0.02442643094174892</v>
       </c>
       <c r="E13">
-        <v>0.04528423654431295</v>
+        <v>-0.01762705703049464</v>
       </c>
       <c r="F13">
-        <v>-0.009061040501631049</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.03205643753506295</v>
+      </c>
+      <c r="G13">
+        <v>0.02493507141009144</v>
+      </c>
+      <c r="H13">
+        <v>0.007341002359085448</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01360274471334981</v>
+        <v>0.007476308206732482</v>
       </c>
       <c r="C14">
-        <v>-0.01569207063266941</v>
+        <v>0.02530129953908324</v>
       </c>
       <c r="D14">
-        <v>-0.006713737446535627</v>
+        <v>0.008208475839883812</v>
       </c>
       <c r="E14">
-        <v>0.01477006620567584</v>
+        <v>0.008694010494181356</v>
       </c>
       <c r="F14">
-        <v>0.02094702264586695</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.001711694504089754</v>
+      </c>
+      <c r="G14">
+        <v>0.03163926301340289</v>
+      </c>
+      <c r="H14">
+        <v>0.01385872929199444</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02356921867833035</v>
+        <v>0.03148543274137059</v>
       </c>
       <c r="C16">
-        <v>-0.009112964247514285</v>
+        <v>0.04366081449731378</v>
       </c>
       <c r="D16">
-        <v>-0.04143663465686377</v>
+        <v>0.000522443228977652</v>
       </c>
       <c r="E16">
-        <v>0.01686757739766278</v>
+        <v>0.004885743264671957</v>
       </c>
       <c r="F16">
-        <v>-0.02655003480611602</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.01562635663966593</v>
+      </c>
+      <c r="G16">
+        <v>0.01324306475075689</v>
+      </c>
+      <c r="H16">
+        <v>0.0008450222472759219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.02250041285892299</v>
+        <v>0.02702305010780174</v>
       </c>
       <c r="C19">
-        <v>-0.007019310765720465</v>
+        <v>0.05570682191366408</v>
       </c>
       <c r="D19">
-        <v>-0.03533429066477091</v>
+        <v>0.01474383079951162</v>
       </c>
       <c r="E19">
-        <v>0.05067405385312752</v>
+        <v>-0.03110362677984591</v>
       </c>
       <c r="F19">
-        <v>-0.03651325305614515</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.04373240826538619</v>
+      </c>
+      <c r="G19">
+        <v>0.03196116497506485</v>
+      </c>
+      <c r="H19">
+        <v>0.03360319919837043</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.006415134950063352</v>
+        <v>0.01010878231598209</v>
       </c>
       <c r="C20">
-        <v>-0.002926478491181849</v>
+        <v>0.03526317795605421</v>
       </c>
       <c r="D20">
-        <v>-0.0003104022233536734</v>
+        <v>0.01290623731340112</v>
       </c>
       <c r="E20">
-        <v>0.03007399566718374</v>
+        <v>-0.017252783204916</v>
       </c>
       <c r="F20">
-        <v>0.0117743779060851</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.01038326982675991</v>
+      </c>
+      <c r="G20">
+        <v>0.02468435337905894</v>
+      </c>
+      <c r="H20">
+        <v>0.007634228215550154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.03814844415077003</v>
+        <v>0.01194598136182928</v>
       </c>
       <c r="C21">
-        <v>-0.02598909774831527</v>
+        <v>0.0346753890011914</v>
       </c>
       <c r="D21">
-        <v>-0.01778713092201401</v>
+        <v>0.01565891718696389</v>
       </c>
       <c r="E21">
-        <v>0.02412462314758194</v>
+        <v>-0.02262129471213641</v>
       </c>
       <c r="F21">
-        <v>-0.01437308090950257</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.02208025638929989</v>
+      </c>
+      <c r="G21">
+        <v>0.04721068050801597</v>
+      </c>
+      <c r="H21">
+        <v>0.01342986749397751</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,70 +1295,94 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02191150080501911</v>
+        <v>0.0256958687848135</v>
       </c>
       <c r="C24">
-        <v>-0.006191473261320428</v>
+        <v>0.04688932429897471</v>
       </c>
       <c r="D24">
-        <v>-0.03513594895525874</v>
+        <v>0.005725381376215451</v>
       </c>
       <c r="E24">
-        <v>0.01461616306483526</v>
+        <v>0.01056212275891778</v>
       </c>
       <c r="F24">
-        <v>-0.02376643313186813</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.02338361328706228</v>
+      </c>
+      <c r="G24">
+        <v>0.01159193703757764</v>
+      </c>
+      <c r="H24">
+        <v>-0.004582295054880311</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.0371039269855958</v>
+        <v>0.04366692262030929</v>
       </c>
       <c r="C25">
-        <v>-0.004627645323435499</v>
+        <v>0.05241185744769609</v>
       </c>
       <c r="D25">
-        <v>-0.03768533339099052</v>
+        <v>0.009579658505210708</v>
       </c>
       <c r="E25">
-        <v>0.02931078872121684</v>
+        <v>0.01635534000061038</v>
       </c>
       <c r="F25">
-        <v>-0.02587620485601694</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.01930428050958093</v>
+      </c>
+      <c r="G25">
+        <v>0.01783539293442292</v>
+      </c>
+      <c r="H25">
+        <v>0.003717675629606438</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.002835297624663236</v>
+        <v>0.002809675628936106</v>
       </c>
       <c r="C26">
-        <v>-0.008760537906336978</v>
+        <v>0.00897206703702772</v>
       </c>
       <c r="D26">
-        <v>0.002673615746555545</v>
+        <v>0.02394458086928817</v>
       </c>
       <c r="E26">
-        <v>0.03091487585674772</v>
+        <v>-0.002906507118928759</v>
       </c>
       <c r="F26">
-        <v>0.02598969950558946</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.008836911720373108</v>
+      </c>
+      <c r="G26">
+        <v>0.02357171906262977</v>
+      </c>
+      <c r="H26">
+        <v>0.006087877873886079</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,150 +1399,198 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1381456052366151</v>
+        <v>0.1105225946817905</v>
       </c>
       <c r="C28">
-        <v>0.05186537594441026</v>
+        <v>-0.2233380685017213</v>
       </c>
       <c r="D28">
-        <v>0.2205288710103292</v>
+        <v>-0.01061628010256053</v>
       </c>
       <c r="E28">
-        <v>0.004876226308399728</v>
+        <v>-0.006086725267895474</v>
       </c>
       <c r="F28">
-        <v>0.01907660929448904</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.009068537066619158</v>
+      </c>
+      <c r="G28">
+        <v>0.05028203619553509</v>
+      </c>
+      <c r="H28">
+        <v>-0.01294510261105057</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01404622732257495</v>
+        <v>0.01190467006288552</v>
       </c>
       <c r="C29">
-        <v>-0.01166081029019185</v>
+        <v>0.0193158059362907</v>
       </c>
       <c r="D29">
-        <v>-0.00808438442792881</v>
+        <v>0.006957222901818821</v>
       </c>
       <c r="E29">
-        <v>0.01597131031590192</v>
+        <v>0.006099524834108143</v>
       </c>
       <c r="F29">
-        <v>0.01747041247993265</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.004902879148695497</v>
+      </c>
+      <c r="G29">
+        <v>0.025330278631164</v>
+      </c>
+      <c r="H29">
+        <v>0.02047776011138963</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.04141446741939651</v>
+        <v>0.03813048275713612</v>
       </c>
       <c r="C30">
-        <v>0.04057140985267094</v>
+        <v>0.07379029312457326</v>
       </c>
       <c r="D30">
-        <v>-0.0782731649066097</v>
+        <v>0.02660901611777838</v>
       </c>
       <c r="E30">
-        <v>0.06127308536875694</v>
+        <v>-0.01534810871406752</v>
       </c>
       <c r="F30">
-        <v>-0.005119719714784397</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.0444617574523868</v>
+      </c>
+      <c r="G30">
+        <v>-0.01268525313859598</v>
+      </c>
+      <c r="H30">
+        <v>0.008688137940384403</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04391969732520265</v>
+        <v>0.0425800844612131</v>
       </c>
       <c r="C31">
-        <v>-0.01805801368602303</v>
+        <v>0.02772523203576566</v>
       </c>
       <c r="D31">
-        <v>-0.02361844233976664</v>
+        <v>0.002354087209908857</v>
       </c>
       <c r="E31">
-        <v>-0.004008773061956654</v>
+        <v>0.01761409709100038</v>
       </c>
       <c r="F31">
-        <v>0.01735618553156728</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.02829203462356038</v>
+      </c>
+      <c r="G31">
+        <v>0.02417450845901491</v>
+      </c>
+      <c r="H31">
+        <v>0.001764954903692154</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0025261585884561</v>
+        <v>0.006673264040383202</v>
       </c>
       <c r="C32">
-        <v>-0.02863549000197981</v>
+        <v>0.03648783493923083</v>
       </c>
       <c r="D32">
-        <v>-0.01786105138185448</v>
+        <v>-0.004990018830686573</v>
       </c>
       <c r="E32">
-        <v>0.03365437405819683</v>
+        <v>-0.01368891779986063</v>
       </c>
       <c r="F32">
-        <v>-0.05872257901751753</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.07655825402094529</v>
+      </c>
+      <c r="G32">
+        <v>0.05302498537250479</v>
+      </c>
+      <c r="H32">
+        <v>0.06748519403409463</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.03244668387335502</v>
+        <v>0.02931887187807137</v>
       </c>
       <c r="C33">
-        <v>0.01424254339177814</v>
+        <v>0.0521310092569782</v>
       </c>
       <c r="D33">
-        <v>-0.04034647820441695</v>
+        <v>0.01359410888708468</v>
       </c>
       <c r="E33">
-        <v>0.04132854805910359</v>
+        <v>-0.01478448048021079</v>
       </c>
       <c r="F33">
-        <v>0.02256933392449183</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.02576166773613632</v>
+      </c>
+      <c r="G33">
+        <v>0.01507002927542107</v>
+      </c>
+      <c r="H33">
+        <v>-0.01919972078205158</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02624372695167328</v>
+        <v>0.04623366225939754</v>
       </c>
       <c r="C34">
-        <v>-0.01793662411155502</v>
+        <v>0.05366771635669496</v>
       </c>
       <c r="D34">
-        <v>-0.04193398716573506</v>
+        <v>-0.006615426101192852</v>
       </c>
       <c r="E34">
-        <v>0.01580953748756498</v>
+        <v>0.01630692718715373</v>
       </c>
       <c r="F34">
-        <v>-0.02362572188196975</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.02387198511104186</v>
+      </c>
+      <c r="G34">
+        <v>0.02221069845783895</v>
+      </c>
+      <c r="H34">
+        <v>-0.001671314127768807</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01686136417646824</v>
+        <v>0.009692510728902528</v>
       </c>
       <c r="C36">
-        <v>-0.004055867954191555</v>
+        <v>0.004823618212238583</v>
       </c>
       <c r="D36">
-        <v>-0.0006414942147641915</v>
+        <v>0.01104773827105058</v>
       </c>
       <c r="E36">
-        <v>0.01472594643304532</v>
+        <v>0.003094625263924393</v>
       </c>
       <c r="F36">
-        <v>0.002482546708779298</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.0004205477259685799</v>
+      </c>
+      <c r="G36">
+        <v>0.01558283088668964</v>
+      </c>
+      <c r="H36">
+        <v>-0.003512054830074383</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.02280289451252062</v>
+        <v>0.03218880013714029</v>
       </c>
       <c r="C38">
-        <v>-0.00281058160266026</v>
+        <v>0.02334071426654106</v>
       </c>
       <c r="D38">
-        <v>-0.01810255341224077</v>
+        <v>-0.00864017707237146</v>
       </c>
       <c r="E38">
-        <v>0.04299264343032338</v>
+        <v>0.003999339738923831</v>
       </c>
       <c r="F38">
-        <v>0.005765716985350138</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.008210116897561036</v>
+      </c>
+      <c r="G38">
+        <v>0.02189849714499098</v>
+      </c>
+      <c r="H38">
+        <v>0.005237324636453241</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01635084780725056</v>
+        <v>0.03033035592187206</v>
       </c>
       <c r="C39">
-        <v>-0.01688994478868382</v>
+        <v>0.08400739444809147</v>
       </c>
       <c r="D39">
-        <v>-0.06433774087631215</v>
+        <v>0.01118534966100675</v>
       </c>
       <c r="E39">
-        <v>0.04770521101573169</v>
+        <v>-0.005424064148449632</v>
       </c>
       <c r="F39">
-        <v>-0.04028489344987052</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.0415104849748076</v>
+      </c>
+      <c r="G39">
+        <v>0.01388587007761624</v>
+      </c>
+      <c r="H39">
+        <v>-0.01396119516386078</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.02772212520947931</v>
+        <v>0.01994379200959716</v>
       </c>
       <c r="C40">
-        <v>-0.004216294061212818</v>
+        <v>0.03201258772186223</v>
       </c>
       <c r="D40">
-        <v>-0.0413553444913738</v>
+        <v>0.01255350070496677</v>
       </c>
       <c r="E40">
-        <v>0.03741505561596181</v>
+        <v>-0.01040006766308248</v>
       </c>
       <c r="F40">
-        <v>-0.03216811649259328</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.02419985721338822</v>
+      </c>
+      <c r="G40">
+        <v>0.01560544392551493</v>
+      </c>
+      <c r="H40">
+        <v>-0.001478522089394954</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.01241861292681904</v>
+        <v>0.01067831306590158</v>
       </c>
       <c r="C41">
-        <v>0.0009569411881158312</v>
+        <v>-0.002549308056964231</v>
       </c>
       <c r="D41">
-        <v>0.00830032742255931</v>
+        <v>0.003151029356982078</v>
       </c>
       <c r="E41">
-        <v>0.002938715901237762</v>
+        <v>0.008951453758703543</v>
       </c>
       <c r="F41">
-        <v>0.010427010317945</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.0002624297116299088</v>
+      </c>
+      <c r="G41">
+        <v>0.0101434686898335</v>
+      </c>
+      <c r="H41">
+        <v>0.001082650919719735</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1369617894433473</v>
+        <v>0.0405779966152906</v>
       </c>
       <c r="C42">
-        <v>0.0862690012587973</v>
+        <v>0.05893828125650419</v>
       </c>
       <c r="D42">
-        <v>-0.1681687411265562</v>
+        <v>0.1033301100396406</v>
       </c>
       <c r="E42">
-        <v>0.2005708730713502</v>
+        <v>-0.08061617596244829</v>
       </c>
       <c r="F42">
-        <v>0.2235159561054887</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.1270706316275849</v>
+      </c>
+      <c r="G42">
+        <v>-0.2284288790044112</v>
+      </c>
+      <c r="H42">
+        <v>-0.9251749035986168</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01759817214528098</v>
+        <v>0.02664322267047394</v>
       </c>
       <c r="C43">
-        <v>0.001959282679722419</v>
+        <v>0.006569952245324056</v>
       </c>
       <c r="D43">
-        <v>0.004462453477607877</v>
+        <v>0.003127286823568886</v>
       </c>
       <c r="E43">
-        <v>0.00799998366388318</v>
+        <v>0.005525902721994978</v>
       </c>
       <c r="F43">
-        <v>0.01648440315291566</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.003593374248713726</v>
+      </c>
+      <c r="G43">
+        <v>0.01263619266174902</v>
+      </c>
+      <c r="H43">
+        <v>-0.0009454228085662476</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.008165972330881019</v>
+        <v>0.01632075172095404</v>
       </c>
       <c r="C44">
-        <v>-0.01170577405341224</v>
+        <v>0.04877591808652917</v>
       </c>
       <c r="D44">
-        <v>-0.01533339058093945</v>
+        <v>0.006427361723501412</v>
       </c>
       <c r="E44">
-        <v>0.07007852696279093</v>
+        <v>-0.01640437941565534</v>
       </c>
       <c r="F44">
-        <v>-0.003791215599209804</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.02639108315189314</v>
+      </c>
+      <c r="G44">
+        <v>0.0305249426586083</v>
+      </c>
+      <c r="H44">
+        <v>-0.01552458285159882</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.006391097442655602</v>
+        <v>0.0004075207146521795</v>
       </c>
       <c r="C46">
-        <v>-0.007311956885679606</v>
+        <v>0.0158942821100026</v>
       </c>
       <c r="D46">
-        <v>-0.02445829448449596</v>
+        <v>0.01148345374720044</v>
       </c>
       <c r="E46">
-        <v>0.03559603953743493</v>
+        <v>0.00769780167480331</v>
       </c>
       <c r="F46">
-        <v>0.02036290796487671</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.007630011536828634</v>
+      </c>
+      <c r="G46">
+        <v>0.01922851240702608</v>
+      </c>
+      <c r="H46">
+        <v>0.02084102540009389</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.06915492494566372</v>
+        <v>0.0725845316177367</v>
       </c>
       <c r="C47">
-        <v>-0.006491395346783523</v>
+        <v>0.06064865963013197</v>
       </c>
       <c r="D47">
-        <v>-0.03950626046872001</v>
+        <v>-0.005711513030040152</v>
       </c>
       <c r="E47">
-        <v>-0.03518387442621279</v>
+        <v>0.01958645617942482</v>
       </c>
       <c r="F47">
-        <v>0.0445082607626765</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.06038901265418761</v>
+      </c>
+      <c r="G47">
+        <v>0.01470849087261078</v>
+      </c>
+      <c r="H47">
+        <v>0.003964854448718904</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02641587034573819</v>
+        <v>0.01497698052146982</v>
       </c>
       <c r="C48">
-        <v>-0.005058122698743877</v>
+        <v>0.01046717484753735</v>
       </c>
       <c r="D48">
-        <v>-0.006153985839244443</v>
+        <v>0.0008057725135711777</v>
       </c>
       <c r="E48">
-        <v>0.01502923927455416</v>
+        <v>0.008416847814772116</v>
       </c>
       <c r="F48">
-        <v>0.001961722056014985</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.0124201327353349</v>
+      </c>
+      <c r="G48">
+        <v>0.01732146618472334</v>
+      </c>
+      <c r="H48">
+        <v>0.0002987613314412071</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.06923333986464564</v>
+        <v>0.07570827100926861</v>
       </c>
       <c r="C50">
-        <v>-0.03772537676882349</v>
+        <v>0.06201251453242862</v>
       </c>
       <c r="D50">
-        <v>-0.05052381540466444</v>
+        <v>-0.004559337391261331</v>
       </c>
       <c r="E50">
-        <v>-0.01255128173499937</v>
+        <v>0.02127016453417341</v>
       </c>
       <c r="F50">
-        <v>0.07148248231165515</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.05883325531697974</v>
+      </c>
+      <c r="G50">
+        <v>0.03850142630957998</v>
+      </c>
+      <c r="H50">
+        <v>0.006115142452736875</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01417818917348447</v>
+        <v>0.01664219858502935</v>
       </c>
       <c r="C51">
-        <v>-0.006124484204894825</v>
+        <v>0.02916382477714047</v>
       </c>
       <c r="D51">
-        <v>0.01644648260111787</v>
+        <v>0.008614126769454913</v>
       </c>
       <c r="E51">
-        <v>0.05528633397307373</v>
+        <v>-0.00671257173838354</v>
       </c>
       <c r="F51">
-        <v>-0.004084303656699425</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.03664934290044446</v>
+      </c>
+      <c r="G51">
+        <v>0.03696502788586166</v>
+      </c>
+      <c r="H51">
+        <v>0.002470660898067848</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.08890351454129873</v>
+        <v>0.0978744373460575</v>
       </c>
       <c r="C53">
-        <v>-0.02647513900810424</v>
+        <v>0.07566133867479179</v>
       </c>
       <c r="D53">
-        <v>-0.06833446267512208</v>
+        <v>-0.006794528144545356</v>
       </c>
       <c r="E53">
-        <v>-0.0603938848172305</v>
+        <v>0.04126078108910854</v>
       </c>
       <c r="F53">
-        <v>0.02609294716413194</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.06778336605762714</v>
+      </c>
+      <c r="G53">
+        <v>0.01590551278404445</v>
+      </c>
+      <c r="H53">
+        <v>-0.004086865097799138</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.0265717331897973</v>
+        <v>0.02759716964239272</v>
       </c>
       <c r="C54">
-        <v>-0.009343327007596231</v>
+        <v>0.003750444600068976</v>
       </c>
       <c r="D54">
-        <v>-0.0001296039403416629</v>
+        <v>-0.004555636663199888</v>
       </c>
       <c r="E54">
-        <v>0.000463196915572664</v>
+        <v>0.0009623150715963376</v>
       </c>
       <c r="F54">
-        <v>-0.001415304137074477</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.002176565544251138</v>
+      </c>
+      <c r="G54">
+        <v>0.02634392606252267</v>
+      </c>
+      <c r="H54">
+        <v>0.01869497084363319</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.06313989149658764</v>
+        <v>0.07269537010564189</v>
       </c>
       <c r="C55">
-        <v>-0.01826994271923733</v>
+        <v>0.06842995425184231</v>
       </c>
       <c r="D55">
-        <v>-0.07822816066162941</v>
+        <v>-0.005684880938265831</v>
       </c>
       <c r="E55">
-        <v>-0.04244934218600244</v>
+        <v>0.03159584262760048</v>
       </c>
       <c r="F55">
-        <v>0.04723916458233339</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.06274963775424371</v>
+      </c>
+      <c r="G55">
+        <v>0.004614398240438172</v>
+      </c>
+      <c r="H55">
+        <v>0.003830519101747155</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1261116248629492</v>
+        <v>0.1467808479439423</v>
       </c>
       <c r="C56">
-        <v>-0.02412390084496012</v>
+        <v>0.09756696207823803</v>
       </c>
       <c r="D56">
-        <v>-0.09881979501976464</v>
+        <v>-0.0157464140766946</v>
       </c>
       <c r="E56">
-        <v>-0.09029617939573455</v>
+        <v>0.04447676718766202</v>
       </c>
       <c r="F56">
-        <v>0.02389024957811807</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.1044161387036185</v>
+      </c>
+      <c r="G56">
+        <v>-0.004892337841745642</v>
+      </c>
+      <c r="H56">
+        <v>-0.003806773650691149</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.03728510196258965</v>
+        <v>0.01536454083331789</v>
       </c>
       <c r="C57">
-        <v>0.002374467376448991</v>
+        <v>0.01104498842538408</v>
       </c>
       <c r="D57">
-        <v>-0.02493826530404541</v>
+        <v>0.02365911254887196</v>
       </c>
       <c r="E57">
-        <v>0.04647346377948201</v>
+        <v>-0.03183885465807086</v>
       </c>
       <c r="F57">
-        <v>-0.006326810357282203</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.0180783134822764</v>
+      </c>
+      <c r="G57">
+        <v>0.02338257022406929</v>
+      </c>
+      <c r="H57">
+        <v>-0.006903310748043072</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1484199342083915</v>
+        <v>0.07052519015773194</v>
       </c>
       <c r="C58">
-        <v>0.1124468074306864</v>
+        <v>0.07461576553730953</v>
       </c>
       <c r="D58">
-        <v>-0.164019302208875</v>
+        <v>0.01928036568226826</v>
       </c>
       <c r="E58">
-        <v>0.5673326456455753</v>
+        <v>-0.9453399184173</v>
       </c>
       <c r="F58">
-        <v>0.5550497248530458</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.2258268937814443</v>
+      </c>
+      <c r="G58">
+        <v>0.07710197462006543</v>
+      </c>
+      <c r="H58">
+        <v>0.09940140162341815</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1427223493765063</v>
+        <v>0.1510000835181828</v>
       </c>
       <c r="C59">
-        <v>0.07050843417889062</v>
+        <v>-0.2144837470935304</v>
       </c>
       <c r="D59">
-        <v>0.1874849936996092</v>
+        <v>-0.01816294506627113</v>
       </c>
       <c r="E59">
-        <v>0.04065579458388174</v>
+        <v>-0.0141124266050316</v>
       </c>
       <c r="F59">
-        <v>-0.04642142688989322</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.01356255771435435</v>
+      </c>
+      <c r="G59">
+        <v>0.01782561373834028</v>
+      </c>
+      <c r="H59">
+        <v>0.001394805849248356</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2114930733428607</v>
+        <v>0.2933613348731621</v>
       </c>
       <c r="C60">
-        <v>0.0391349295222832</v>
+        <v>0.08461539778066478</v>
       </c>
       <c r="D60">
-        <v>-0.03760205535739268</v>
+        <v>0.005039907728969582</v>
       </c>
       <c r="E60">
-        <v>0.1795064809539912</v>
+        <v>-0.02426578822430837</v>
       </c>
       <c r="F60">
-        <v>-0.3967301821610429</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.3926567137417597</v>
+      </c>
+      <c r="G60">
+        <v>-0.04782074346209049</v>
+      </c>
+      <c r="H60">
+        <v>0.06635599250191915</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.03028337494654068</v>
+        <v>0.03167391434445495</v>
       </c>
       <c r="C61">
-        <v>-0.01003508926389118</v>
+        <v>0.06428348508698967</v>
       </c>
       <c r="D61">
-        <v>-0.05616371701063456</v>
+        <v>0.004460901803095941</v>
       </c>
       <c r="E61">
-        <v>0.02963714000745348</v>
+        <v>-0.0009686425162821531</v>
       </c>
       <c r="F61">
-        <v>-0.04926715437260314</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.02727259314866112</v>
+      </c>
+      <c r="G61">
+        <v>0.01526121510370875</v>
+      </c>
+      <c r="H61">
+        <v>0.002098476448603588</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01561865513925254</v>
+        <v>0.0128650274635985</v>
       </c>
       <c r="C63">
-        <v>-0.008991066253812302</v>
+        <v>0.02780155545260437</v>
       </c>
       <c r="D63">
-        <v>-0.02141579321186988</v>
+        <v>0.007492292978697206</v>
       </c>
       <c r="E63">
-        <v>0.003672852738065222</v>
+        <v>0.01802679365157281</v>
       </c>
       <c r="F63">
-        <v>0.02333454845993367</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.005067521772713088</v>
+      </c>
+      <c r="G63">
+        <v>0.02074492315564787</v>
+      </c>
+      <c r="H63">
+        <v>0.003439908157604098</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.04731857376115034</v>
+        <v>0.0467051864765582</v>
       </c>
       <c r="C64">
-        <v>-0.01019386719489002</v>
+        <v>0.03611081879559536</v>
       </c>
       <c r="D64">
-        <v>-0.04242696474378263</v>
+        <v>0.004003052952749016</v>
       </c>
       <c r="E64">
-        <v>0.01621882207911008</v>
+        <v>0.01601165201380955</v>
       </c>
       <c r="F64">
-        <v>-0.008933875080188114</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.01463455817829653</v>
+      </c>
+      <c r="G64">
+        <v>0.01283285929286306</v>
+      </c>
+      <c r="H64">
+        <v>-0.03472748114137161</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.06792373944016397</v>
+        <v>0.07826743591753756</v>
       </c>
       <c r="C65">
-        <v>-0.01450324464706677</v>
+        <v>0.06690493706159065</v>
       </c>
       <c r="D65">
-        <v>-0.05603346287423057</v>
+        <v>0.01443400293606485</v>
       </c>
       <c r="E65">
-        <v>0.03107676740438449</v>
+        <v>0.0003487462852792279</v>
       </c>
       <c r="F65">
-        <v>-0.05667713012123395</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.03798603418153695</v>
+      </c>
+      <c r="G65">
+        <v>0.009006947724445722</v>
+      </c>
+      <c r="H65">
+        <v>0.01512997899818568</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03777493747409221</v>
+        <v>0.0516758923894711</v>
       </c>
       <c r="C66">
-        <v>-0.001451118077906069</v>
+        <v>0.1184503810135612</v>
       </c>
       <c r="D66">
-        <v>-0.08631616897353318</v>
+        <v>0.01022276633369435</v>
       </c>
       <c r="E66">
-        <v>0.02766999950222031</v>
+        <v>-0.006553282337558455</v>
       </c>
       <c r="F66">
-        <v>-0.05094164706680464</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.04822781187151597</v>
+      </c>
+      <c r="G66">
+        <v>0.002701888158038081</v>
+      </c>
+      <c r="H66">
+        <v>0.008403638599046534</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03994032776054821</v>
+        <v>0.05766205136904903</v>
       </c>
       <c r="C67">
-        <v>-0.0004572887259245809</v>
+        <v>0.02599693196283211</v>
       </c>
       <c r="D67">
-        <v>-0.01895045492930948</v>
+        <v>-0.007584499884096946</v>
       </c>
       <c r="E67">
-        <v>0.02466685035202102</v>
+        <v>0.01076723252787383</v>
       </c>
       <c r="F67">
-        <v>-0.004152048956585972</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.007549787834623942</v>
+      </c>
+      <c r="G67">
+        <v>0.02182481959131241</v>
+      </c>
+      <c r="H67">
+        <v>0.009430705904115207</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1254368983561865</v>
+        <v>0.1214964248840207</v>
       </c>
       <c r="C68">
-        <v>0.06966523136870217</v>
+        <v>-0.2679716742415038</v>
       </c>
       <c r="D68">
-        <v>0.2075505276324487</v>
+        <v>0.0006089305603435852</v>
       </c>
       <c r="E68">
-        <v>0.005975824256773016</v>
+        <v>-0.012394581334104</v>
       </c>
       <c r="F68">
-        <v>-0.003190307086345466</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.01814810785103197</v>
+      </c>
+      <c r="G68">
+        <v>0.01827846955489511</v>
+      </c>
+      <c r="H68">
+        <v>-0.01604145876592778</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05292833884400081</v>
+        <v>0.07523810769207775</v>
       </c>
       <c r="C69">
-        <v>-0.009929026032435864</v>
+        <v>0.05861323705644137</v>
       </c>
       <c r="D69">
-        <v>-0.04402036730499716</v>
+        <v>-0.01016991200739861</v>
       </c>
       <c r="E69">
-        <v>-0.02541117519609494</v>
+        <v>0.0362801253348013</v>
       </c>
       <c r="F69">
-        <v>0.0184984659341299</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.03728522674568022</v>
+      </c>
+      <c r="G69">
+        <v>0.01190123798142724</v>
+      </c>
+      <c r="H69">
+        <v>0.01231748626238618</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1163360205899695</v>
+        <v>0.1235471104963044</v>
       </c>
       <c r="C71">
-        <v>0.05400734996659601</v>
+        <v>-0.225152063704581</v>
       </c>
       <c r="D71">
-        <v>0.2049692871011705</v>
+        <v>-0.008444541177439268</v>
       </c>
       <c r="E71">
-        <v>0.01835575121135066</v>
+        <v>-0.01936607998750106</v>
       </c>
       <c r="F71">
-        <v>0.0500679856617912</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.02359870033554446</v>
+      </c>
+      <c r="G71">
+        <v>0.0316576039109314</v>
+      </c>
+      <c r="H71">
+        <v>-0.03116712447398451</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1204295406007676</v>
+        <v>0.08270567462688894</v>
       </c>
       <c r="C72">
-        <v>-0.009610202525576426</v>
+        <v>0.08284162871188865</v>
       </c>
       <c r="D72">
-        <v>-0.1441157048476493</v>
+        <v>-0.009892323755878374</v>
       </c>
       <c r="E72">
-        <v>0.1218906742471884</v>
+        <v>0.02089899524748209</v>
       </c>
       <c r="F72">
-        <v>-0.1847557538309204</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.03568067247301501</v>
+      </c>
+      <c r="G72">
+        <v>-0.009514133994813288</v>
+      </c>
+      <c r="H72">
+        <v>0.009689858130038132</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2616969942622502</v>
+        <v>0.3980676734281279</v>
       </c>
       <c r="C73">
-        <v>0.09379221551027941</v>
+        <v>0.0999745248765344</v>
       </c>
       <c r="D73">
-        <v>-0.08608820752548849</v>
+        <v>0.009116514236150456</v>
       </c>
       <c r="E73">
-        <v>0.2561889692336121</v>
+        <v>-0.0777636079784786</v>
       </c>
       <c r="F73">
-        <v>-0.3846784589305208</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.5289335795154404</v>
+      </c>
+      <c r="G73">
+        <v>-0.09164866168641589</v>
+      </c>
+      <c r="H73">
+        <v>-0.05690550819070508</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1170721743261685</v>
+        <v>0.1176179046137836</v>
       </c>
       <c r="C74">
-        <v>-0.01463133592583185</v>
+        <v>0.116319814677111</v>
       </c>
       <c r="D74">
-        <v>-0.1041258364843998</v>
+        <v>-0.01157628482277272</v>
       </c>
       <c r="E74">
-        <v>-0.07730675712399139</v>
+        <v>0.03989705765447221</v>
       </c>
       <c r="F74">
-        <v>0.01558524414147423</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.07390070259109707</v>
+      </c>
+      <c r="G74">
+        <v>0.007479015167971712</v>
+      </c>
+      <c r="H74">
+        <v>0.001349083644807958</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2356964271843331</v>
+        <v>0.2584264420901323</v>
       </c>
       <c r="C75">
-        <v>-0.01811927706012838</v>
+        <v>0.139235774462396</v>
       </c>
       <c r="D75">
-        <v>-0.1594866620433249</v>
+        <v>-0.0327132828763108</v>
       </c>
       <c r="E75">
-        <v>-0.1606919648933465</v>
+        <v>0.06269394104806297</v>
       </c>
       <c r="F75">
-        <v>0.01879233885928432</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.2204950419414027</v>
+      </c>
+      <c r="G75">
+        <v>-0.03448336068617527</v>
+      </c>
+      <c r="H75">
+        <v>0.0005659311958013325</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2225292035175744</v>
+        <v>0.1463997201271499</v>
       </c>
       <c r="C76">
-        <v>-0.04030261672589346</v>
+        <v>0.1193876562291522</v>
       </c>
       <c r="D76">
-        <v>-0.1599916554284326</v>
+        <v>-0.02419623315983634</v>
       </c>
       <c r="E76">
-        <v>-0.2298071837912226</v>
+        <v>0.07139393493708537</v>
       </c>
       <c r="F76">
-        <v>0.03152146107125055</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1439773032180446</v>
+      </c>
+      <c r="G76">
+        <v>-0.002925758167466071</v>
+      </c>
+      <c r="H76">
+        <v>0.006927013580710719</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.03925736982261506</v>
+        <v>0.054686573892096</v>
       </c>
       <c r="C77">
-        <v>-0.009587537119390399</v>
+        <v>0.06332107435572429</v>
       </c>
       <c r="D77">
-        <v>-0.0569939842762194</v>
+        <v>0.01173832944081568</v>
       </c>
       <c r="E77">
-        <v>0.07139675789659006</v>
+        <v>-0.02869050119387869</v>
       </c>
       <c r="F77">
-        <v>0.1402981272014363</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.006340823323925004</v>
+      </c>
+      <c r="G77">
+        <v>0.03565488380610603</v>
+      </c>
+      <c r="H77">
+        <v>-0.0222245452495724</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.02638428945520929</v>
+        <v>0.04315059494339422</v>
       </c>
       <c r="C78">
-        <v>-0.01326114689768244</v>
+        <v>0.05436936662874488</v>
       </c>
       <c r="D78">
-        <v>-0.04439697566828112</v>
+        <v>0.004594429399023322</v>
       </c>
       <c r="E78">
-        <v>0.05692743473143101</v>
+        <v>-0.01302121604361298</v>
       </c>
       <c r="F78">
-        <v>-0.03652716387509332</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.04453406854423766</v>
+      </c>
+      <c r="G78">
+        <v>0.02466989612517075</v>
+      </c>
+      <c r="H78">
+        <v>0.009329927079876529</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1965278289109738</v>
+        <v>0.0671034956313106</v>
       </c>
       <c r="C80">
-        <v>-0.9271486720143162</v>
+        <v>0.08150681379712763</v>
       </c>
       <c r="D80">
-        <v>0.2183729973548527</v>
+        <v>0.01225525511745007</v>
       </c>
       <c r="E80">
-        <v>0.1344701279876549</v>
+        <v>0.08229175411599882</v>
       </c>
       <c r="F80">
-        <v>0.03446804075267771</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.01413452514463122</v>
+      </c>
+      <c r="G80">
+        <v>0.9230412250836644</v>
+      </c>
+      <c r="H80">
+        <v>-0.215740145923517</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1817205307374501</v>
+        <v>0.1493059732295883</v>
       </c>
       <c r="C81">
-        <v>-0.02408415458584329</v>
+        <v>0.08900819728809144</v>
       </c>
       <c r="D81">
-        <v>-0.1156298318810786</v>
+        <v>-0.0182982959378057</v>
       </c>
       <c r="E81">
-        <v>-0.1254156454455876</v>
+        <v>0.04488094134424456</v>
       </c>
       <c r="F81">
-        <v>0.05586678952113756</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.1388523189257904</v>
+      </c>
+      <c r="G81">
+        <v>0.004781574618837084</v>
+      </c>
+      <c r="H81">
+        <v>0.004751049550039804</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.03948254411259772</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.03003117633831179</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.002238232773282061</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.01943506629131019</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.002365546569424154</v>
+      </c>
+      <c r="G82">
+        <v>-0.001467623022821092</v>
+      </c>
+      <c r="H82">
+        <v>0.01702663221966221</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03406322758299882</v>
+        <v>0.03026632867184606</v>
       </c>
       <c r="C83">
-        <v>0.002538698565961895</v>
+        <v>0.01984853853082384</v>
       </c>
       <c r="D83">
-        <v>-0.01175364577696063</v>
+        <v>0.004683616913993971</v>
       </c>
       <c r="E83">
-        <v>0.04441493584765518</v>
+        <v>-0.02302988846963032</v>
       </c>
       <c r="F83">
-        <v>-0.001912949629102939</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.02498188659775485</v>
+      </c>
+      <c r="G83">
+        <v>0.02569197609460044</v>
+      </c>
+      <c r="H83">
+        <v>0.00961089867019954</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.222636498989548</v>
+        <v>0.2452225887990442</v>
       </c>
       <c r="C85">
-        <v>-0.01454288476363663</v>
+        <v>0.1481023756619195</v>
       </c>
       <c r="D85">
-        <v>-0.1894995221377054</v>
+        <v>-0.0219107637788716</v>
       </c>
       <c r="E85">
-        <v>-0.1677870530814533</v>
+        <v>0.1045608151251244</v>
       </c>
       <c r="F85">
-        <v>0.03347363097124215</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.2072275545789764</v>
+      </c>
+      <c r="G85">
+        <v>-0.06568517567144749</v>
+      </c>
+      <c r="H85">
+        <v>-0.002091854499873353</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01363566720996808</v>
+        <v>0.008618041314381399</v>
       </c>
       <c r="C86">
-        <v>-0.009866535985966726</v>
+        <v>0.023531106056989</v>
       </c>
       <c r="D86">
-        <v>-0.02185917158403631</v>
+        <v>0.009539786055346134</v>
       </c>
       <c r="E86">
-        <v>0.05413649150699842</v>
+        <v>-0.01431688763421599</v>
       </c>
       <c r="F86">
-        <v>0.0152914370661733</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.02347160222674875</v>
+      </c>
+      <c r="G86">
+        <v>0.04895943189098721</v>
+      </c>
+      <c r="H86">
+        <v>-0.03482325888836936</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02703022067235689</v>
+        <v>0.01705790113965222</v>
       </c>
       <c r="C87">
-        <v>-0.008794466987802231</v>
+        <v>0.02690651845366334</v>
       </c>
       <c r="D87">
-        <v>-0.0298545907764468</v>
+        <v>0.01095000089149242</v>
       </c>
       <c r="E87">
-        <v>0.1041130288654947</v>
+        <v>-0.07456439547106249</v>
       </c>
       <c r="F87">
-        <v>-0.02869746473150109</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.06206931466225366</v>
+      </c>
+      <c r="G87">
+        <v>0.04002537355211755</v>
+      </c>
+      <c r="H87">
+        <v>-0.01311959498592213</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.04906157737334478</v>
+        <v>0.08431581094360448</v>
       </c>
       <c r="C88">
-        <v>0.005085231223832247</v>
+        <v>0.05227967658096705</v>
       </c>
       <c r="D88">
-        <v>-0.01094960976023849</v>
+        <v>0.02035261501150164</v>
       </c>
       <c r="E88">
-        <v>-0.005119652635976286</v>
+        <v>0.01656301312620764</v>
       </c>
       <c r="F88">
-        <v>-0.01386320464680928</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.006820646544362755</v>
+      </c>
+      <c r="G88">
+        <v>0.01782172025155092</v>
+      </c>
+      <c r="H88">
+        <v>0.02272431363561429</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2295702456375948</v>
+        <v>0.2184501845300546</v>
       </c>
       <c r="C89">
-        <v>0.133066146337016</v>
+        <v>-0.3764990263691222</v>
       </c>
       <c r="D89">
-        <v>0.3471316158705758</v>
+        <v>-0.01104422707199718</v>
       </c>
       <c r="E89">
-        <v>-0.008893112095728236</v>
+        <v>0.0114768367667295</v>
       </c>
       <c r="F89">
-        <v>0.004269647259608607</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.02380412793307806</v>
+      </c>
+      <c r="G89">
+        <v>0.02823450561469319</v>
+      </c>
+      <c r="H89">
+        <v>0.003369345885572533</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.143365898540765</v>
+        <v>0.1807135147208956</v>
       </c>
       <c r="C90">
-        <v>0.1151318769026802</v>
+        <v>-0.3382314591715917</v>
       </c>
       <c r="D90">
-        <v>0.2996268372410592</v>
+        <v>-0.01309318172838684</v>
       </c>
       <c r="E90">
-        <v>-0.0569880560053013</v>
+        <v>-0.003269664179510468</v>
       </c>
       <c r="F90">
-        <v>0.05978518164913213</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.03892860667510553</v>
+      </c>
+      <c r="G90">
+        <v>0.003815917351447769</v>
+      </c>
+      <c r="H90">
+        <v>-0.008948452868389422</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2450350007070139</v>
+        <v>0.2131764462897449</v>
       </c>
       <c r="C91">
-        <v>-0.02049396499350379</v>
+        <v>0.1325980540631385</v>
       </c>
       <c r="D91">
-        <v>-0.1956451729634798</v>
+        <v>-0.02714467508699699</v>
       </c>
       <c r="E91">
-        <v>-0.2348564726307622</v>
+        <v>0.08732372544629403</v>
       </c>
       <c r="F91">
-        <v>0.04252873147691541</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.1939936147040522</v>
+      </c>
+      <c r="G91">
+        <v>-0.02192525324185046</v>
+      </c>
+      <c r="H91">
+        <v>0.001065717184642861</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2989463523419864</v>
+        <v>0.2162520034022072</v>
       </c>
       <c r="C92">
-        <v>0.1074156755407773</v>
+        <v>-0.2711806421867134</v>
       </c>
       <c r="D92">
-        <v>0.2611122313444888</v>
+        <v>-0.0570826690367915</v>
       </c>
       <c r="E92">
-        <v>-0.1457098012771867</v>
+        <v>0.00127189199110796</v>
       </c>
       <c r="F92">
-        <v>0.2110935952822395</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.1405646928374868</v>
+      </c>
+      <c r="G92">
+        <v>0.05255993931806499</v>
+      </c>
+      <c r="H92">
+        <v>0.001615120424435838</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2085586876227737</v>
+        <v>0.2060108952261031</v>
       </c>
       <c r="C93">
-        <v>0.1493269377276285</v>
+        <v>-0.3353393074642304</v>
       </c>
       <c r="D93">
-        <v>0.3416873676075683</v>
+        <v>-0.02009292928028422</v>
       </c>
       <c r="E93">
-        <v>-0.01774992367667813</v>
+        <v>-0.01638747226176126</v>
       </c>
       <c r="F93">
-        <v>0.003133548626145106</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.009088162138697353</v>
+      </c>
+      <c r="G93">
+        <v>-0.001806468266929829</v>
+      </c>
+      <c r="H93">
+        <v>-0.03339648508377693</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2979902940788953</v>
+        <v>0.2886440503363979</v>
       </c>
       <c r="C94">
-        <v>0.01743677212010968</v>
+        <v>0.14860494219885</v>
       </c>
       <c r="D94">
-        <v>-0.1774926949574577</v>
+        <v>-0.01628720610284069</v>
       </c>
       <c r="E94">
-        <v>-0.2464667024342239</v>
+        <v>0.09815946506748512</v>
       </c>
       <c r="F94">
-        <v>0.1055868851231559</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.3705088508812868</v>
+      </c>
+      <c r="G94">
+        <v>-0.1296834585135861</v>
+      </c>
+      <c r="H94">
+        <v>0.2209417988614938</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.08048415889979205</v>
+        <v>0.07551992719803483</v>
       </c>
       <c r="C95">
-        <v>0.06817834320422436</v>
+        <v>0.08226238545201227</v>
       </c>
       <c r="D95">
-        <v>-0.06290808956545871</v>
+        <v>-0.007624185764208795</v>
       </c>
       <c r="E95">
-        <v>0.004363411061880668</v>
+        <v>-0.07408874920100933</v>
       </c>
       <c r="F95">
-        <v>-0.04751703880081297</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.1429583997844835</v>
+      </c>
+      <c r="G95">
+        <v>-0.06325686486369504</v>
+      </c>
+      <c r="H95">
+        <v>-0.0313531802232757</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.21586186815431</v>
+        <v>0.2161316911363481</v>
       </c>
       <c r="C98">
-        <v>0.06436398529773352</v>
+        <v>0.04452947343940908</v>
       </c>
       <c r="D98">
-        <v>-0.02556657067205672</v>
+        <v>-0.02050790192239277</v>
       </c>
       <c r="E98">
-        <v>0.2599819938087342</v>
+        <v>-0.07233922333154127</v>
       </c>
       <c r="F98">
-        <v>-0.362340969018024</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.2588180066253374</v>
+      </c>
+      <c r="G98">
+        <v>-0.02913189534735553</v>
+      </c>
+      <c r="H98">
+        <v>-0.03764525558856984</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.0269805975153029</v>
+        <v>0.01348236382486159</v>
       </c>
       <c r="C101">
-        <v>-0.003537097762633021</v>
+        <v>0.02056651031073447</v>
       </c>
       <c r="D101">
-        <v>-0.02240234003531796</v>
+        <v>0.008106361785618462</v>
       </c>
       <c r="E101">
-        <v>0.1164515309003393</v>
+        <v>-0.03208545986087133</v>
       </c>
       <c r="F101">
-        <v>0.1634976909749184</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.02395408747922443</v>
+      </c>
+      <c r="G101">
+        <v>0.0326208901538057</v>
+      </c>
+      <c r="H101">
+        <v>0.02148297819096477</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1278917792732777</v>
+        <v>0.1248555627187967</v>
       </c>
       <c r="C102">
-        <v>-0.01030856252263435</v>
+        <v>0.07748025648667503</v>
       </c>
       <c r="D102">
-        <v>-0.08641286367475549</v>
+        <v>-0.001382100952105864</v>
       </c>
       <c r="E102">
-        <v>-0.1039815490785593</v>
+        <v>0.04609840215225169</v>
       </c>
       <c r="F102">
-        <v>0.0381285244127003</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.0630352484694168</v>
+      </c>
+      <c r="G102">
+        <v>-0.01778698580397373</v>
+      </c>
+      <c r="H102">
+        <v>-0.01036885532126368</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.03105728796482168</v>
+        <v>0.006524892035126498</v>
       </c>
       <c r="C103">
-        <v>-0.01762056944610355</v>
+        <v>0.005800446781050718</v>
       </c>
       <c r="D103">
-        <v>-0.0236362616299035</v>
+        <v>0.0001882308781704416</v>
       </c>
       <c r="E103">
-        <v>-0.01411151216495525</v>
+        <v>0.002347370988056224</v>
       </c>
       <c r="F103">
-        <v>0.002937642766774857</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.01062091513570695</v>
+      </c>
+      <c r="G103">
+        <v>0.01290551978597584</v>
+      </c>
+      <c r="H103">
+        <v>-0.005912687506236317</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.04747434309832263</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.04667233833902382</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.9855867603257903</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.04299515379641038</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.03609567453495677</v>
+      </c>
+      <c r="G104">
+        <v>0.0002635685918070008</v>
+      </c>
+      <c r="H104">
+        <v>0.09842587366642024</v>
       </c>
     </row>
   </sheetData>
